--- a/demo/src/main/resources/config.xlsx
+++ b/demo/src/main/resources/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCCEEBD-55D8-479C-9BF4-EFEB66B0B77B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3872A86-0AC4-44B8-A6E3-D0EEEE46E599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>url=https://opensource-demo.orangehrmlive.com</t>
   </si>
@@ -37,13 +37,34 @@
   </si>
   <si>
     <t>loginButton=//*[@id=\"btnLogin\"]</t>
+  </si>
+  <si>
+    <t>menu_admin_viewAdminModule=//*[@id="menu_admin_viewAdminModule"]/b</t>
+  </si>
+  <si>
+    <t>securityAuthentication_userName=//*[@id="securityAuthentication_userName"]</t>
+  </si>
+  <si>
+    <t>btnSearchValues=//*[@id="btnSearchValues"]</t>
+  </si>
+  <si>
+    <t>passwordLink=//*[@id="forgotPasswordLink"]/a</t>
+  </si>
+  <si>
+    <t>username=txtUsername</t>
+  </si>
+  <si>
+    <t>password=txtPassword</t>
+  </si>
+  <si>
+    <t>loginButton=Submit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +79,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,9 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,30 +409,82 @@
     <col min="1" max="1" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>